--- a/source/feed/feed.xlsx
+++ b/source/feed/feed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrstepanov/Development/bimmersticker-hexo/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrstepanov/Development/bimmersticker-hexo/source/feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30570C8F-426B-A645-BCE2-51964C002DE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD351C89-D97E-344E-A545-229645FDA01A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example_feed_txt" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>brand</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -88,18 +85,12 @@
     <t>https://bimmersticker.store/instagram-username-sticker/</t>
   </si>
   <si>
-    <t>https://bimmersticker.store/instagram-username-sticker/car-custom-instagram-username-stickers.jpg</t>
-  </si>
-  <si>
     <t>9.99 USD</t>
   </si>
   <si>
     <t>Bimmer Sticker Store</t>
   </si>
   <si>
-    <t>White/Holographic</t>
-  </si>
-  <si>
     <t>8x2 in</t>
   </si>
   <si>
@@ -110,12 +101,21 @@
   </si>
   <si>
     <t>ST_SOCIAL_IG</t>
+  </si>
+  <si>
+    <t>mpn</t>
+  </si>
+  <si>
+    <t>STSOIGWHHO</t>
+  </si>
+  <si>
+    <t>https://bimmersticker.store/instagram-username-sticker/instagram-username-sticker.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -974,11 +974,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,7 +993,9 @@
     <col min="8" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="15.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="13" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="20.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
     <col min="14" max="14" width="31.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.83203125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="10.83203125" style="1"/>
@@ -1030,73 +1032,73 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{15D0CDBE-A6A8-684B-B697-471102C3DC60}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/source/feed/feed.xlsx
+++ b/source/feed/feed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrstepanov/Development/bimmersticker-hexo/source/feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD351C89-D97E-344E-A545-229645FDA01A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E57C39-9069-F44E-B923-5F3061A1AC09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>https://bimmersticker.store/instagram-username-sticker/instagram-username-sticker.jpg</t>
+  </si>
+  <si>
+    <t>https://bimmersticker.store/bimmer-not-beamer/</t>
+  </si>
+  <si>
+    <t>https://bimmersticker.store/bimmer-not-beamer/bimmer-not-beamer-sticker.jpg</t>
+  </si>
+  <si>
+    <t>STBMBNB</t>
+  </si>
+  <si>
+    <t>7x2 in</t>
   </si>
 </sst>
 </file>
@@ -975,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,7 +1005,7 @@
     <col min="8" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="15.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="20.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="1"/>
     <col min="14" max="14" width="31.33203125" style="1" customWidth="1"/>
@@ -1065,10 +1077,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>15</v>
@@ -1080,25 +1092,74 @@
         <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{15D0CDBE-A6A8-684B-B697-471102C3DC60}"/>
+    <hyperlink ref="F18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G18" r:id="rId2" xr:uid="{15D0CDBE-A6A8-684B-B697-471102C3DC60}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{E38046C7-A778-6B4E-98FE-B36FA7C581EA}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{4B05D85B-0691-8948-ABA4-8AFF73847011}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/source/feed/feed.xlsx
+++ b/source/feed/feed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrstepanov/Development/bimmersticker-hexo/source/feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E57C39-9069-F44E-B923-5F3061A1AC09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9774FFBC-D845-2042-B501-5ECDE9528A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="1720" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example_feed_txt" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>7x2 in</t>
+  </si>
+  <si>
+    <t>ST_BMW_BNB</t>
+  </si>
+  <si>
+    <t>bimmer not beamer sticker</t>
+  </si>
+  <si>
+    <t>Bimmer not beamer sticker clarifies how to spell it right. Sticker is made of premium outdoor vinyls. Sticker comes with installation instructions. Great for indoor and outdoor use.</t>
   </si>
 </sst>
 </file>
@@ -990,7 +999,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1060,15 +1069,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>18</v>
@@ -1107,59 +1116,74 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="102" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="3" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G18" r:id="rId2" xr:uid="{15D0CDBE-A6A8-684B-B697-471102C3DC60}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{E38046C7-A778-6B4E-98FE-B36FA7C581EA}"/>
-    <hyperlink ref="G2" r:id="rId4" xr:uid="{4B05D85B-0691-8948-ABA4-8AFF73847011}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{E38046C7-A778-6B4E-98FE-B36FA7C581EA}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{4B05D85B-0691-8948-ABA4-8AFF73847011}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{1C49DD19-BBAA-4D40-BEDA-8E5394FB655C}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{3D03203B-A2D9-D346-B4A0-B6D0E71635E5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/source/feed/feed.xlsx
+++ b/source/feed/feed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrstepanov/Development/bimmersticker-hexo/source/feed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9774FFBC-D845-2042-B501-5ECDE9528A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9E8345-CB94-5E44-8AFE-501506043A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1720" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="2400" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example_feed_txt" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Stickers &gt; Social</t>
   </si>
   <si>
-    <t>https://bimmersticker.store/instagram-username-sticker/</t>
-  </si>
-  <si>
     <t>9.99 USD</t>
   </si>
   <si>
@@ -109,15 +106,6 @@
     <t>STSOIGWHHO</t>
   </si>
   <si>
-    <t>https://bimmersticker.store/instagram-username-sticker/instagram-username-sticker.jpg</t>
-  </si>
-  <si>
-    <t>https://bimmersticker.store/bimmer-not-beamer/</t>
-  </si>
-  <si>
-    <t>https://bimmersticker.store/bimmer-not-beamer/bimmer-not-beamer-sticker.jpg</t>
-  </si>
-  <si>
     <t>STBMBNB</t>
   </si>
   <si>
@@ -131,6 +119,24 @@
   </si>
   <si>
     <t>Bimmer not beamer sticker clarifies how to spell it right. Sticker is made of premium outdoor vinyls. Sticker comes with installation instructions. Great for indoor and outdoor use.</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/bimmerstickerstore/listing/634953846/two-custom-instagram-name-handle-vinyl</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/bimmerstickerstore/listing/671055552/bimmer-not-beamer-bmw-window-sticker</t>
+  </si>
+  <si>
+    <t>https://i.etsystatic.com/17395494/r/il/7fc386/2024353013/il_794xN.2024353013_c2kp.jpg</t>
+  </si>
+  <si>
+    <t>https://i.etsystatic.com/17395494/r/il/6c41fa/1835172935/il_794xN.1835172935_kugb.jpg</t>
+  </si>
+  <si>
+    <t>7.99 USD</t>
+  </si>
+  <si>
+    <t>Stickers &gt; BMW</t>
   </si>
 </sst>
 </file>
@@ -998,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1060,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -1071,25 +1077,25 @@
     </row>
     <row r="2" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>15</v>
@@ -1098,27 +1104,27 @@
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -1133,10 +1139,10 @@
         <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>15</v>
@@ -1145,22 +1151,22 @@
         <v>14</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1180,10 +1186,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{E38046C7-A778-6B4E-98FE-B36FA7C581EA}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{4B05D85B-0691-8948-ABA4-8AFF73847011}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{1C49DD19-BBAA-4D40-BEDA-8E5394FB655C}"/>
-    <hyperlink ref="G3" r:id="rId4" xr:uid="{3D03203B-A2D9-D346-B4A0-B6D0E71635E5}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{4B05D85B-0691-8948-ABA4-8AFF73847011}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{1C49DD19-BBAA-4D40-BEDA-8E5394FB655C}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{3D03203B-A2D9-D346-B4A0-B6D0E71635E5}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{6F6C66E2-A21E-B84E-B7A3-F3538D170AD6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
